--- a/public/files/tmp/data_ppjk.xlsx
+++ b/public/files/tmp/data_ppjk.xlsx
@@ -359,7 +359,7 @@
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>TITAN 24</t>
+          <t>TITAN 24.</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>LEO MARINE 3012</t>
+          <t>LEO MARINE 3012.</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C31" s="0" t="inlineStr">
         <is>
-          <t>PPJ-2019/14840</t>
+          <t>PPJ-2019/14841</t>
         </is>
       </c>
       <c r="D31" s="0" t="inlineStr">
@@ -3762,6 +3762,11 @@
           <t>SINGAPORE</t>
         </is>
       </c>
+      <c r="L68" s="0" t="inlineStr">
+        <is>
+          <t>CHEMICAL</t>
+        </is>
+      </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="0">
@@ -3908,6 +3913,3161 @@
         </is>
       </c>
     </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="0">
+        <v>71</v>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>19/08/2019</t>
+        </is>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15023</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>RSS</t>
+        </is>
+      </c>
+      <c r="E72" s="0" t="inlineStr">
+        <is>
+          <t>DONGYANG CHEMI</t>
+        </is>
+      </c>
+      <c r="F72" s="0" t="inlineStr">
+        <is>
+          <t>Selago Makmur</t>
+        </is>
+      </c>
+      <c r="G72" s="0" t="inlineStr">
+        <is>
+          <t>20/08/2019 04:45</t>
+        </is>
+      </c>
+      <c r="H72" s="0" t="inlineStr">
+        <is>
+          <t>22/08/2019 04:45</t>
+        </is>
+      </c>
+      <c r="I72" s="0" t="inlineStr">
+        <is>
+          <t>MALAYSIA</t>
+        </is>
+      </c>
+      <c r="J72" s="0" t="inlineStr">
+        <is>
+          <t>MALAYSIA</t>
+        </is>
+      </c>
+      <c r="L72" s="0" t="inlineStr">
+        <is>
+          <t>PALM OIL</t>
+        </is>
+      </c>
+      <c r="M72" s="0" t="inlineStr">
+        <is>
+          <t>0/5000</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="0">
+        <v>72</v>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>19/08/2019</t>
+        </is>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15020</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E73" s="0" t="inlineStr">
+        <is>
+          <t>POLY 33</t>
+        </is>
+      </c>
+      <c r="F73" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="G73" s="0" t="inlineStr">
+        <is>
+          <t>19/08/2019 04:59</t>
+        </is>
+      </c>
+      <c r="H73" s="0" t="inlineStr">
+        <is>
+          <t>22/08/2019 05:59</t>
+        </is>
+      </c>
+      <c r="I73" s="0" t="inlineStr">
+        <is>
+          <t>MUARA PORT</t>
+        </is>
+      </c>
+      <c r="J73" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="0">
+        <v>73</v>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>19/08/2019</t>
+        </is>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15032</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E74" s="0" t="inlineStr">
+        <is>
+          <t>HAI CHANG</t>
+        </is>
+      </c>
+      <c r="F74" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="G74" s="0" t="inlineStr">
+        <is>
+          <t>23/08/2019 06:52</t>
+        </is>
+      </c>
+      <c r="H74" s="0" t="inlineStr">
+        <is>
+          <t>26/08/2019 06:52</t>
+        </is>
+      </c>
+      <c r="I74" s="0" t="inlineStr">
+        <is>
+          <t>SANTOS</t>
+        </is>
+      </c>
+      <c r="J74" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="0">
+        <v>74</v>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>19/08/2019</t>
+        </is>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15040</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>GLS</t>
+        </is>
+      </c>
+      <c r="E75" s="0" t="inlineStr">
+        <is>
+          <t>GURITA 3003</t>
+        </is>
+      </c>
+      <c r="F75" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="G75" s="0" t="inlineStr">
+        <is>
+          <t>24/08/2019 01:03</t>
+        </is>
+      </c>
+      <c r="H75" s="0" t="inlineStr">
+        <is>
+          <t>26/08/2019 01:03</t>
+        </is>
+      </c>
+      <c r="I75" s="0" t="inlineStr">
+        <is>
+          <t>KALIMANTAN SELATAN</t>
+        </is>
+      </c>
+      <c r="J75" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="0">
+        <v>75</v>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>19/08/2019</t>
+        </is>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15044</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>PMI</t>
+        </is>
+      </c>
+      <c r="E76" s="0" t="inlineStr">
+        <is>
+          <t>HONGLI 8</t>
+        </is>
+      </c>
+      <c r="F76" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="G76" s="0" t="inlineStr">
+        <is>
+          <t>20/08/2019 01:05</t>
+        </is>
+      </c>
+      <c r="H76" s="0" t="inlineStr">
+        <is>
+          <t>21/08/2019 02:05</t>
+        </is>
+      </c>
+      <c r="I76" s="0" t="inlineStr">
+        <is>
+          <t>POHANG PORT</t>
+        </is>
+      </c>
+      <c r="J76" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="0">
+        <v>76</v>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>19/08/2019</t>
+        </is>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15050</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>ITL</t>
+        </is>
+      </c>
+      <c r="E77" s="0" t="inlineStr">
+        <is>
+          <t>BAOSHAN RICH</t>
+        </is>
+      </c>
+      <c r="F77" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="G77" s="0" t="inlineStr">
+        <is>
+          <t>20/08/2019 01:07</t>
+        </is>
+      </c>
+      <c r="H77" s="0" t="inlineStr">
+        <is>
+          <t>24/08/2019 02:07</t>
+        </is>
+      </c>
+      <c r="I77" s="0" t="inlineStr">
+        <is>
+          <t>HONGKONG</t>
+        </is>
+      </c>
+      <c r="J77" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="0">
+        <v>77</v>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>19/08/2019</t>
+        </is>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15048</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>ADL</t>
+        </is>
+      </c>
+      <c r="E78" s="0" t="inlineStr">
+        <is>
+          <t>GAS ARIA</t>
+        </is>
+      </c>
+      <c r="F78" s="0" t="inlineStr">
+        <is>
+          <t>CAPC</t>
+        </is>
+      </c>
+      <c r="G78" s="0" t="inlineStr">
+        <is>
+          <t>21/08/2019 01:16</t>
+        </is>
+      </c>
+      <c r="H78" s="0" t="inlineStr">
+        <is>
+          <t>21/08/2019 01:16</t>
+        </is>
+      </c>
+      <c r="I78" s="0" t="inlineStr">
+        <is>
+          <t>CILACAP</t>
+        </is>
+      </c>
+      <c r="J78" s="0" t="inlineStr">
+        <is>
+          <t>CILACAP</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="0">
+        <v>78</v>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>19/08/2019</t>
+        </is>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15049</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>ADL</t>
+        </is>
+      </c>
+      <c r="E79" s="0" t="inlineStr">
+        <is>
+          <t>CHANG YOUNG</t>
+        </is>
+      </c>
+      <c r="F79" s="0" t="inlineStr">
+        <is>
+          <t>RPU</t>
+        </is>
+      </c>
+      <c r="G79" s="0" t="inlineStr">
+        <is>
+          <t>26/08/2019 01:16</t>
+        </is>
+      </c>
+      <c r="H79" s="0" t="inlineStr">
+        <is>
+          <t>26/08/2019 01:16</t>
+        </is>
+      </c>
+      <c r="I79" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J79" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="0">
+        <v>79</v>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>19/08/2019</t>
+        </is>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15068</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="E80" s="0" t="inlineStr">
+        <is>
+          <t>SOUTHERN FALCON</t>
+        </is>
+      </c>
+      <c r="F80" s="0" t="inlineStr">
+        <is>
+          <t>DOVER</t>
+        </is>
+      </c>
+      <c r="G80" s="0" t="inlineStr">
+        <is>
+          <t>22/08/2019 08:30</t>
+        </is>
+      </c>
+      <c r="H80" s="0" t="inlineStr">
+        <is>
+          <t>24/08/2019 08:30</t>
+        </is>
+      </c>
+      <c r="I80" s="0" t="inlineStr">
+        <is>
+          <t>MALAYSIA</t>
+        </is>
+      </c>
+      <c r="J80" s="0" t="inlineStr">
+        <is>
+          <t>MALAYSIA</t>
+        </is>
+      </c>
+      <c r="L80" s="0" t="inlineStr">
+        <is>
+          <t>METHANOL</t>
+        </is>
+      </c>
+      <c r="M80" s="0" t="inlineStr">
+        <is>
+          <t>7000/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="0">
+        <v>80</v>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>20/08/2019</t>
+        </is>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15064</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>SAL</t>
+        </is>
+      </c>
+      <c r="E81" s="0" t="inlineStr">
+        <is>
+          <t>PACIFIC STAR 52</t>
+        </is>
+      </c>
+      <c r="F81" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="G81" s="0" t="inlineStr">
+        <is>
+          <t>27/08/2019 06:57</t>
+        </is>
+      </c>
+      <c r="H81" s="0" t="inlineStr">
+        <is>
+          <t>29/08/2019 06:57</t>
+        </is>
+      </c>
+      <c r="I81" s="0" t="inlineStr">
+        <is>
+          <t>PT. INJATAMA KETAHUN</t>
+        </is>
+      </c>
+      <c r="J81" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="0">
+        <v>81</v>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>20/08/2019</t>
+        </is>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15109</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>BEN</t>
+        </is>
+      </c>
+      <c r="E82" s="0" t="inlineStr">
+        <is>
+          <t>GASCHEM SHINANO</t>
+        </is>
+      </c>
+      <c r="F82" s="0" t="inlineStr">
+        <is>
+          <t>TITAN</t>
+        </is>
+      </c>
+      <c r="G82" s="0" t="inlineStr">
+        <is>
+          <t>20/08/2019 06:57</t>
+        </is>
+      </c>
+      <c r="H82" s="0" t="inlineStr">
+        <is>
+          <t>20/08/2019 06:57</t>
+        </is>
+      </c>
+      <c r="I82" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J82" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="0">
+        <v>82</v>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>20/08/2019</t>
+        </is>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15110</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>BEN</t>
+        </is>
+      </c>
+      <c r="E83" s="0" t="inlineStr">
+        <is>
+          <t>CSS INTEGRITY</t>
+        </is>
+      </c>
+      <c r="F83" s="0" t="inlineStr">
+        <is>
+          <t>VOPAK</t>
+        </is>
+      </c>
+      <c r="G83" s="0" t="inlineStr">
+        <is>
+          <t>24/08/2019 06:57</t>
+        </is>
+      </c>
+      <c r="H83" s="0" t="inlineStr">
+        <is>
+          <t>24/08/2019 06:57</t>
+        </is>
+      </c>
+      <c r="I83" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J83" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="0">
+        <v>83</v>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>20/08/2019</t>
+        </is>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15069</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>PMI</t>
+        </is>
+      </c>
+      <c r="E84" s="0" t="inlineStr">
+        <is>
+          <t>FANEROMENI</t>
+        </is>
+      </c>
+      <c r="F84" s="0" t="inlineStr">
+        <is>
+          <t>CAPC</t>
+        </is>
+      </c>
+      <c r="G84" s="0" t="inlineStr">
+        <is>
+          <t>24/08/2019 01:07</t>
+        </is>
+      </c>
+      <c r="H84" s="0" t="inlineStr">
+        <is>
+          <t>27/08/2019 01:07</t>
+        </is>
+      </c>
+      <c r="I84" s="0" t="inlineStr">
+        <is>
+          <t>SANTOS</t>
+        </is>
+      </c>
+      <c r="J84" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="0">
+        <v>84</v>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>20/08/2019</t>
+        </is>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15076</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>ITL</t>
+        </is>
+      </c>
+      <c r="E85" s="0" t="inlineStr">
+        <is>
+          <t>TEAM HOPE</t>
+        </is>
+      </c>
+      <c r="F85" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="G85" s="0" t="inlineStr">
+        <is>
+          <t>23/08/2019 01:11</t>
+        </is>
+      </c>
+      <c r="H85" s="0" t="inlineStr">
+        <is>
+          <t>28/08/2019 01:11</t>
+        </is>
+      </c>
+      <c r="I85" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="J85" s="0" t="inlineStr">
+        <is>
+          <t>JEBEL ALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="0">
+        <v>85</v>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>21/08/2019</t>
+        </is>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15103</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>BSU</t>
+        </is>
+      </c>
+      <c r="E86" s="0" t="inlineStr">
+        <is>
+          <t>OCEAN SUPREME</t>
+        </is>
+      </c>
+      <c r="F86" s="0" t="inlineStr">
+        <is>
+          <t>RPU</t>
+        </is>
+      </c>
+      <c r="G86" s="0" t="inlineStr">
+        <is>
+          <t>22/08/2019 02:12</t>
+        </is>
+      </c>
+      <c r="H86" s="0" t="inlineStr">
+        <is>
+          <t>23/08/2019 02:12</t>
+        </is>
+      </c>
+      <c r="I86" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J86" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="M86" s="0" t="inlineStr">
+        <is>
+          <t>6308/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="0">
+        <v>86</v>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>21/08/2019</t>
+        </is>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15105</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>BSU</t>
+        </is>
+      </c>
+      <c r="E87" s="0" t="inlineStr">
+        <is>
+          <t>DH FEALTY</t>
+        </is>
+      </c>
+      <c r="F87" s="0" t="inlineStr">
+        <is>
+          <t>DOVER</t>
+        </is>
+      </c>
+      <c r="G87" s="0" t="inlineStr">
+        <is>
+          <t>19/08/2019 02:47</t>
+        </is>
+      </c>
+      <c r="H87" s="0" t="inlineStr">
+        <is>
+          <t>20/08/2019 03:47</t>
+        </is>
+      </c>
+      <c r="I87" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J87" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="0">
+        <v>87</v>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>21/08/2019</t>
+        </is>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15106</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>BSU</t>
+        </is>
+      </c>
+      <c r="E88" s="0" t="inlineStr">
+        <is>
+          <t>STOLT PONDO</t>
+        </is>
+      </c>
+      <c r="F88" s="0" t="inlineStr">
+        <is>
+          <t>RPU</t>
+        </is>
+      </c>
+      <c r="G88" s="0" t="inlineStr">
+        <is>
+          <t>22/08/2019 02:47</t>
+        </is>
+      </c>
+      <c r="H88" s="0" t="inlineStr">
+        <is>
+          <t>23/08/2019 02:47</t>
+        </is>
+      </c>
+      <c r="I88" s="0" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="J88" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="0">
+        <v>88</v>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>21/08/2019</t>
+        </is>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15111</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>ITL</t>
+        </is>
+      </c>
+      <c r="E89" s="0" t="inlineStr">
+        <is>
+          <t>XING RONG HAI</t>
+        </is>
+      </c>
+      <c r="F89" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="G89" s="0" t="inlineStr">
+        <is>
+          <t>21/08/2019 07:05</t>
+        </is>
+      </c>
+      <c r="H89" s="0" t="inlineStr">
+        <is>
+          <t>26/08/2019 08:05</t>
+        </is>
+      </c>
+      <c r="I89" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="J89" s="0" t="inlineStr">
+        <is>
+          <t>TARRAGONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="0">
+        <v>89</v>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>21/08/2019</t>
+        </is>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15116</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>TSC</t>
+        </is>
+      </c>
+      <c r="E90" s="0" t="inlineStr">
+        <is>
+          <t>SABRINA</t>
+        </is>
+      </c>
+      <c r="F90" s="0" t="inlineStr">
+        <is>
+          <t>CAPC</t>
+        </is>
+      </c>
+      <c r="G90" s="0" t="inlineStr">
+        <is>
+          <t>26/08/2019 09:14</t>
+        </is>
+      </c>
+      <c r="H90" s="0" t="inlineStr">
+        <is>
+          <t>26/08/2019 09:14</t>
+        </is>
+      </c>
+      <c r="I90" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J90" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="0">
+        <v>90</v>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>21/08/2019</t>
+        </is>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15126</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>BMB</t>
+        </is>
+      </c>
+      <c r="E91" s="0" t="inlineStr">
+        <is>
+          <t>MANNA LINES 9003</t>
+        </is>
+      </c>
+      <c r="F91" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="G91" s="0" t="inlineStr">
+        <is>
+          <t>21/08/2019 16:27</t>
+        </is>
+      </c>
+      <c r="H91" s="0" t="inlineStr">
+        <is>
+          <t>21/08/2019 17:27</t>
+        </is>
+      </c>
+      <c r="I91" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="J91" s="0" t="inlineStr">
+        <is>
+          <t>PONTIANAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="0">
+        <v>91</v>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>21/08/2019</t>
+        </is>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15118</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>CNSL</t>
+        </is>
+      </c>
+      <c r="E92" s="0" t="inlineStr">
+        <is>
+          <t>HARAPAN SEJATI</t>
+        </is>
+      </c>
+      <c r="F92" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="G92" s="0" t="inlineStr">
+        <is>
+          <t>21/08/2019 01:02</t>
+        </is>
+      </c>
+      <c r="H92" s="0" t="inlineStr">
+        <is>
+          <t>23/08/2019 02:02</t>
+        </is>
+      </c>
+      <c r="I92" s="0" t="inlineStr">
+        <is>
+          <t>BADAS</t>
+        </is>
+      </c>
+      <c r="J92" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="0">
+        <v>92</v>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>22/08/2019</t>
+        </is>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15147</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>EM</t>
+        </is>
+      </c>
+      <c r="E93" s="0" t="inlineStr">
+        <is>
+          <t>CLIPPER HELEN</t>
+        </is>
+      </c>
+      <c r="F93" s="0" t="inlineStr">
+        <is>
+          <t>ASC</t>
+        </is>
+      </c>
+      <c r="G93" s="0" t="inlineStr">
+        <is>
+          <t>24/08/2019 02:41</t>
+        </is>
+      </c>
+      <c r="H93" s="0" t="inlineStr">
+        <is>
+          <t>26/08/2019 02:41</t>
+        </is>
+      </c>
+      <c r="I93" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J93" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="L93" s="0" t="inlineStr">
+        <is>
+          <t>ETHYLENE</t>
+        </is>
+      </c>
+      <c r="M93" s="0" t="inlineStr">
+        <is>
+          <t>8150/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="0">
+        <v>93</v>
+      </c>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>22/08/2019</t>
+        </is>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15145</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="E94" s="0" t="inlineStr">
+        <is>
+          <t>ANTIKITHIRA</t>
+        </is>
+      </c>
+      <c r="F94" s="0" t="inlineStr">
+        <is>
+          <t>ASC</t>
+        </is>
+      </c>
+      <c r="G94" s="0" t="inlineStr">
+        <is>
+          <t>25/08/2019 02:41</t>
+        </is>
+      </c>
+      <c r="H94" s="0" t="inlineStr">
+        <is>
+          <t>26/08/2019 02:41</t>
+        </is>
+      </c>
+      <c r="I94" s="0" t="inlineStr">
+        <is>
+          <t>AL-JUBAIL</t>
+        </is>
+      </c>
+      <c r="J94" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="L94" s="0" t="inlineStr">
+        <is>
+          <t>ETHYLENE</t>
+        </is>
+      </c>
+      <c r="M94" s="0" t="inlineStr">
+        <is>
+          <t>6600/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="0">
+        <v>94</v>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>22/08/2019</t>
+        </is>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15146</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="E95" s="0" t="inlineStr">
+        <is>
+          <t>GAS TEXIANA</t>
+        </is>
+      </c>
+      <c r="F95" s="0" t="inlineStr">
+        <is>
+          <t>ASC</t>
+        </is>
+      </c>
+      <c r="G95" s="0" t="inlineStr">
+        <is>
+          <t>26/08/2019 02:41</t>
+        </is>
+      </c>
+      <c r="H95" s="0" t="inlineStr">
+        <is>
+          <t>27/08/2019 02:41</t>
+        </is>
+      </c>
+      <c r="I95" s="0" t="inlineStr">
+        <is>
+          <t>INDIA</t>
+        </is>
+      </c>
+      <c r="J95" s="0" t="inlineStr">
+        <is>
+          <t>VUNGTON</t>
+        </is>
+      </c>
+      <c r="L95" s="0" t="inlineStr">
+        <is>
+          <t>VCAM</t>
+        </is>
+      </c>
+      <c r="M95" s="0" t="inlineStr">
+        <is>
+          <t>3400/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="0">
+        <v>95</v>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>22/08/2019</t>
+        </is>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15144</t>
+        </is>
+      </c>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="E96" s="0" t="inlineStr">
+        <is>
+          <t>JBU SCHELDE</t>
+        </is>
+      </c>
+      <c r="F96" s="0" t="inlineStr">
+        <is>
+          <t>CAPC</t>
+        </is>
+      </c>
+      <c r="G96" s="0" t="inlineStr">
+        <is>
+          <t>23/08/2019 02:41</t>
+        </is>
+      </c>
+      <c r="H96" s="0" t="inlineStr">
+        <is>
+          <t>24/08/2019 02:41</t>
+        </is>
+      </c>
+      <c r="I96" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J96" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="L96" s="0" t="inlineStr">
+        <is>
+          <t>ETHYLENE</t>
+        </is>
+      </c>
+      <c r="M96" s="0" t="inlineStr">
+        <is>
+          <t>4200/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="0">
+        <v>96</v>
+      </c>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>22/08/2019</t>
+        </is>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15167</t>
+        </is>
+      </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>IDT</t>
+        </is>
+      </c>
+      <c r="E97" s="0" t="inlineStr">
+        <is>
+          <t>GASCHEM ANTARTIC</t>
+        </is>
+      </c>
+      <c r="F97" s="0" t="inlineStr">
+        <is>
+          <t>ASC</t>
+        </is>
+      </c>
+      <c r="G97" s="0" t="inlineStr">
+        <is>
+          <t>10/08/2019 06:12</t>
+        </is>
+      </c>
+      <c r="H97" s="0" t="inlineStr">
+        <is>
+          <t>12/08/2019 07:12</t>
+        </is>
+      </c>
+      <c r="I97" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J97" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="0">
+        <v>97</v>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>22/08/2019</t>
+        </is>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15165</t>
+        </is>
+      </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="E98" s="0" t="inlineStr">
+        <is>
+          <t>WHITNEY</t>
+        </is>
+      </c>
+      <c r="F98" s="0" t="inlineStr">
+        <is>
+          <t>Polychem Lindo</t>
+        </is>
+      </c>
+      <c r="G98" s="0" t="inlineStr">
+        <is>
+          <t>22/08/2019 06:56</t>
+        </is>
+      </c>
+      <c r="H98" s="0" t="inlineStr">
+        <is>
+          <t>22/08/2019 07:56</t>
+        </is>
+      </c>
+      <c r="I98" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J98" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="0">
+        <v>98</v>
+      </c>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>22/08/2019</t>
+        </is>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15186</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t>BSU</t>
+        </is>
+      </c>
+      <c r="E99" s="0" t="inlineStr">
+        <is>
+          <t>MARGAUX</t>
+        </is>
+      </c>
+      <c r="F99" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="G99" s="0" t="inlineStr">
+        <is>
+          <t>27/08/2019 01:27</t>
+        </is>
+      </c>
+      <c r="H99" s="0" t="inlineStr">
+        <is>
+          <t>30/08/2019 01:27</t>
+        </is>
+      </c>
+      <c r="I99" s="0" t="inlineStr">
+        <is>
+          <t>THATONG</t>
+        </is>
+      </c>
+      <c r="J99" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="0">
+        <v>99</v>
+      </c>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>23/08/2019</t>
+        </is>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15206</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t>KL</t>
+        </is>
+      </c>
+      <c r="E100" s="0" t="inlineStr">
+        <is>
+          <t>KAMO</t>
+        </is>
+      </c>
+      <c r="F100" s="0" t="inlineStr">
+        <is>
+          <t>Cilegon Fabricator</t>
+        </is>
+      </c>
+      <c r="G100" s="0" t="inlineStr">
+        <is>
+          <t>27/08/2019 03:27</t>
+        </is>
+      </c>
+      <c r="H100" s="0" t="inlineStr">
+        <is>
+          <t>29/08/2019 03:27</t>
+        </is>
+      </c>
+      <c r="I100" s="0" t="inlineStr">
+        <is>
+          <t>SEMARANG</t>
+        </is>
+      </c>
+      <c r="J100" s="0" t="inlineStr">
+        <is>
+          <t>KOBE</t>
+        </is>
+      </c>
+      <c r="L100" s="0" t="inlineStr">
+        <is>
+          <t>STEEL</t>
+        </is>
+      </c>
+      <c r="M100" s="0" t="inlineStr">
+        <is>
+          <t>3500</t>
+        </is>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="0">
+        <v>100</v>
+      </c>
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>23/08/2019</t>
+        </is>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15207</t>
+        </is>
+      </c>
+      <c r="D101" s="0" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="E101" s="0" t="inlineStr">
+        <is>
+          <t>SC ETERNITY XLVII</t>
+        </is>
+      </c>
+      <c r="F101" s="0" t="inlineStr">
+        <is>
+          <t>ASC</t>
+        </is>
+      </c>
+      <c r="G101" s="0" t="inlineStr">
+        <is>
+          <t>25/08/2019 03:27</t>
+        </is>
+      </c>
+      <c r="H101" s="0" t="inlineStr">
+        <is>
+          <t>26/08/2019 03:27</t>
+        </is>
+      </c>
+      <c r="I101" s="0" t="inlineStr">
+        <is>
+          <t>KUANTAN, MALAYSIA</t>
+        </is>
+      </c>
+      <c r="J101" s="0" t="inlineStr">
+        <is>
+          <t>VUNGTAU, VIETNAM</t>
+        </is>
+      </c>
+      <c r="L101" s="0" t="inlineStr">
+        <is>
+          <t>VCM</t>
+        </is>
+      </c>
+      <c r="M101" s="0" t="inlineStr">
+        <is>
+          <t>-/3400</t>
+        </is>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="0">
+        <v>101</v>
+      </c>
+      <c r="B102" s="0" t="inlineStr">
+        <is>
+          <t>23/08/2019</t>
+        </is>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15200</t>
+        </is>
+      </c>
+      <c r="D102" s="0" t="inlineStr">
+        <is>
+          <t>ITL</t>
+        </is>
+      </c>
+      <c r="E102" s="0" t="inlineStr">
+        <is>
+          <t>PRINCESS</t>
+        </is>
+      </c>
+      <c r="F102" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="G102" s="0" t="inlineStr">
+        <is>
+          <t>25/08/2019 01:29</t>
+        </is>
+      </c>
+      <c r="H102" s="0" t="inlineStr">
+        <is>
+          <t>30/08/2019 02:34</t>
+        </is>
+      </c>
+      <c r="I102" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="J102" s="0" t="inlineStr">
+        <is>
+          <t>PHU MY</t>
+        </is>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="0">
+        <v>102</v>
+      </c>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>23/08/2019</t>
+        </is>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15197</t>
+        </is>
+      </c>
+      <c r="D103" s="0" t="inlineStr">
+        <is>
+          <t>SAI</t>
+        </is>
+      </c>
+      <c r="E103" s="0" t="inlineStr">
+        <is>
+          <t>MATSUSHIMA</t>
+        </is>
+      </c>
+      <c r="F103" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="G103" s="0" t="inlineStr">
+        <is>
+          <t>24/08/2019 01:27</t>
+        </is>
+      </c>
+      <c r="H103" s="0" t="inlineStr">
+        <is>
+          <t>26/08/2019 01:27</t>
+        </is>
+      </c>
+      <c r="I103" s="0" t="inlineStr">
+        <is>
+          <t>NAGOYA</t>
+        </is>
+      </c>
+      <c r="J103" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="0">
+        <v>103</v>
+      </c>
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>23/08/2019</t>
+        </is>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15195</t>
+        </is>
+      </c>
+      <c r="D104" s="0" t="inlineStr">
+        <is>
+          <t>CNSL</t>
+        </is>
+      </c>
+      <c r="E104" s="0" t="inlineStr">
+        <is>
+          <t>HODASCO 19</t>
+        </is>
+      </c>
+      <c r="F104" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="G104" s="0" t="inlineStr">
+        <is>
+          <t>25/08/2019 01:34</t>
+        </is>
+      </c>
+      <c r="H104" s="0" t="inlineStr">
+        <is>
+          <t>27/08/2019 02:34</t>
+        </is>
+      </c>
+      <c r="I104" s="0" t="inlineStr">
+        <is>
+          <t>BADAS</t>
+        </is>
+      </c>
+      <c r="J104" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="0">
+        <v>104</v>
+      </c>
+      <c r="B105" s="0" t="inlineStr">
+        <is>
+          <t>23/08/2019</t>
+        </is>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15189</t>
+        </is>
+      </c>
+      <c r="D105" s="0" t="inlineStr">
+        <is>
+          <t>BIG</t>
+        </is>
+      </c>
+      <c r="E105" s="0" t="inlineStr">
+        <is>
+          <t>SANIA</t>
+        </is>
+      </c>
+      <c r="F105" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="G105" s="0" t="inlineStr">
+        <is>
+          <t>24/08/2019 01:34</t>
+        </is>
+      </c>
+      <c r="H105" s="0" t="inlineStr">
+        <is>
+          <t>30/08/2019 02:34</t>
+        </is>
+      </c>
+      <c r="I105" s="0" t="inlineStr">
+        <is>
+          <t>LUCINDA</t>
+        </is>
+      </c>
+      <c r="J105" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="0">
+        <v>105</v>
+      </c>
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>24/08/2019</t>
+        </is>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15220</t>
+        </is>
+      </c>
+      <c r="D106" s="0" t="inlineStr">
+        <is>
+          <t>EM</t>
+        </is>
+      </c>
+      <c r="E106" s="0" t="inlineStr">
+        <is>
+          <t>GASCHEM NORDSE</t>
+        </is>
+      </c>
+      <c r="F106" s="0" t="inlineStr">
+        <is>
+          <t>TITAN</t>
+        </is>
+      </c>
+      <c r="G106" s="0" t="inlineStr">
+        <is>
+          <t>24/08/2019 23:40</t>
+        </is>
+      </c>
+      <c r="H106" s="0" t="inlineStr">
+        <is>
+          <t>25/08/2019 00:40</t>
+        </is>
+      </c>
+      <c r="I106" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J106" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="L106" s="0" t="inlineStr">
+        <is>
+          <t>ETHYLENE</t>
+        </is>
+      </c>
+      <c r="M106" s="0" t="inlineStr">
+        <is>
+          <t>3500/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="0">
+        <v>106</v>
+      </c>
+      <c r="B107" s="0" t="inlineStr">
+        <is>
+          <t>26/08/2019</t>
+        </is>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15242</t>
+        </is>
+      </c>
+      <c r="D107" s="0" t="inlineStr">
+        <is>
+          <t>IDT</t>
+        </is>
+      </c>
+      <c r="E107" s="0" t="inlineStr">
+        <is>
+          <t>HARAPAN BARU</t>
+        </is>
+      </c>
+      <c r="F107" s="0" t="inlineStr">
+        <is>
+          <t>BBT</t>
+        </is>
+      </c>
+      <c r="G107" s="0" t="inlineStr">
+        <is>
+          <t>26/08/2019 03:30</t>
+        </is>
+      </c>
+      <c r="H107" s="0" t="inlineStr">
+        <is>
+          <t>26/08/2019 04:30</t>
+        </is>
+      </c>
+      <c r="I107" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J107" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="0">
+        <v>107</v>
+      </c>
+      <c r="B108" s="0" t="inlineStr">
+        <is>
+          <t>26/08/2019</t>
+        </is>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15271</t>
+        </is>
+      </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t>AAS</t>
+        </is>
+      </c>
+      <c r="E108" s="0" t="inlineStr">
+        <is>
+          <t>ALFA LIMA STAR - 7</t>
+        </is>
+      </c>
+      <c r="F108" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="G108" s="0" t="inlineStr">
+        <is>
+          <t>26/08/2019 02:25</t>
+        </is>
+      </c>
+      <c r="H108" s="0" t="inlineStr">
+        <is>
+          <t>28/08/2019 03:25</t>
+        </is>
+      </c>
+      <c r="I108" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="J108" s="0" t="inlineStr">
+        <is>
+          <t>BERAU</t>
+        </is>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="0">
+        <v>108</v>
+      </c>
+      <c r="B109" s="0" t="inlineStr">
+        <is>
+          <t>27/08/2019</t>
+        </is>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15262</t>
+        </is>
+      </c>
+      <c r="D109" s="0" t="inlineStr">
+        <is>
+          <t>EM</t>
+        </is>
+      </c>
+      <c r="E109" s="0" t="inlineStr">
+        <is>
+          <t>NEELAMBARI</t>
+        </is>
+      </c>
+      <c r="F109" s="0" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="G109" s="0" t="inlineStr">
+        <is>
+          <t>27/08/2019 01:06</t>
+        </is>
+      </c>
+      <c r="H109" s="0" t="inlineStr">
+        <is>
+          <t>27/08/2019 02:06</t>
+        </is>
+      </c>
+      <c r="I109" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J109" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="0">
+        <v>109</v>
+      </c>
+      <c r="B110" s="0" t="inlineStr">
+        <is>
+          <t>27/08/2019</t>
+        </is>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15263</t>
+        </is>
+      </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="E110" s="0" t="inlineStr">
+        <is>
+          <t>TORERO</t>
+        </is>
+      </c>
+      <c r="F110" s="0" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
+      </c>
+      <c r="G110" s="0" t="inlineStr">
+        <is>
+          <t>28/08/2019 01:06</t>
+        </is>
+      </c>
+      <c r="H110" s="0" t="inlineStr">
+        <is>
+          <t>28/08/2019 01:06</t>
+        </is>
+      </c>
+      <c r="I110" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J110" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="0">
+        <v>110</v>
+      </c>
+      <c r="B111" s="0" t="inlineStr">
+        <is>
+          <t>27/08/2019</t>
+        </is>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15264</t>
+        </is>
+      </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t>MAI</t>
+        </is>
+      </c>
+      <c r="E111" s="0" t="inlineStr">
+        <is>
+          <t>GAS HARMONY</t>
+        </is>
+      </c>
+      <c r="F111" s="0" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
+      </c>
+      <c r="G111" s="0" t="inlineStr">
+        <is>
+          <t>28/08/2019 01:06</t>
+        </is>
+      </c>
+      <c r="H111" s="0" t="inlineStr">
+        <is>
+          <t>28/08/2019 01:06</t>
+        </is>
+      </c>
+      <c r="I111" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J111" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="0">
+        <v>111</v>
+      </c>
+      <c r="B112" s="0" t="inlineStr">
+        <is>
+          <t>27/08/2019</t>
+        </is>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15265</t>
+        </is>
+      </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>BSU</t>
+        </is>
+      </c>
+      <c r="E112" s="0" t="inlineStr">
+        <is>
+          <t>EAGLE ASIA 01</t>
+        </is>
+      </c>
+      <c r="F112" s="0" t="inlineStr">
+        <is>
+          <t>DOVER</t>
+        </is>
+      </c>
+      <c r="G112" s="0" t="inlineStr">
+        <is>
+          <t>26/08/2019 01:06</t>
+        </is>
+      </c>
+      <c r="H112" s="0" t="inlineStr">
+        <is>
+          <t>27/08/2019 01:06</t>
+        </is>
+      </c>
+      <c r="I112" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J112" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="0">
+        <v>112</v>
+      </c>
+      <c r="B113" s="0" t="inlineStr">
+        <is>
+          <t>27/08/2019</t>
+        </is>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15266</t>
+        </is>
+      </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>BSU</t>
+        </is>
+      </c>
+      <c r="E113" s="0" t="inlineStr">
+        <is>
+          <t>EAGLE ASIA 11</t>
+        </is>
+      </c>
+      <c r="F113" s="0" t="inlineStr">
+        <is>
+          <t>BMT</t>
+        </is>
+      </c>
+      <c r="G113" s="0" t="inlineStr">
+        <is>
+          <t>27/08/2019 01:06</t>
+        </is>
+      </c>
+      <c r="H113" s="0" t="inlineStr">
+        <is>
+          <t>28/08/2019 01:06</t>
+        </is>
+      </c>
+      <c r="I113" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J113" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="0">
+        <v>113</v>
+      </c>
+      <c r="B114" s="0" t="inlineStr">
+        <is>
+          <t>27/08/2019</t>
+        </is>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15267</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>BSU</t>
+        </is>
+      </c>
+      <c r="E114" s="0" t="inlineStr">
+        <is>
+          <t>BLOSSOM</t>
+        </is>
+      </c>
+      <c r="F114" s="0" t="inlineStr">
+        <is>
+          <t>RPU</t>
+        </is>
+      </c>
+      <c r="G114" s="0" t="inlineStr">
+        <is>
+          <t>27/08/2019 01:06</t>
+        </is>
+      </c>
+      <c r="H114" s="0" t="inlineStr">
+        <is>
+          <t>28/08/2019 01:06</t>
+        </is>
+      </c>
+      <c r="I114" s="0" t="inlineStr">
+        <is>
+          <t>MALAYSIA</t>
+        </is>
+      </c>
+      <c r="J114" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="0">
+        <v>114</v>
+      </c>
+      <c r="B115" s="0" t="inlineStr">
+        <is>
+          <t>27/08/2019</t>
+        </is>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15268</t>
+        </is>
+      </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>BSU</t>
+        </is>
+      </c>
+      <c r="E115" s="0" t="inlineStr">
+        <is>
+          <t>MADEIRO</t>
+        </is>
+      </c>
+      <c r="F115" s="0" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="G115" s="0" t="inlineStr">
+        <is>
+          <t>27/08/2019 01:06</t>
+        </is>
+      </c>
+      <c r="H115" s="0" t="inlineStr">
+        <is>
+          <t>29/08/2019 01:06</t>
+        </is>
+      </c>
+      <c r="I115" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J115" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="0">
+        <v>115</v>
+      </c>
+      <c r="B116" s="0" t="inlineStr">
+        <is>
+          <t>27/08/2019</t>
+        </is>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15287</t>
+        </is>
+      </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>PST</t>
+        </is>
+      </c>
+      <c r="E116" s="0" t="inlineStr">
+        <is>
+          <t>PB 3020</t>
+        </is>
+      </c>
+      <c r="F116" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="G116" s="0" t="inlineStr">
+        <is>
+          <t>29/08/2019 08:07</t>
+        </is>
+      </c>
+      <c r="H116" s="0" t="inlineStr">
+        <is>
+          <t>31/08/2019 08:07</t>
+        </is>
+      </c>
+      <c r="I116" s="0" t="inlineStr">
+        <is>
+          <t>JETTY SEM</t>
+        </is>
+      </c>
+      <c r="J116" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="0">
+        <v>116</v>
+      </c>
+      <c r="B117" s="0" t="inlineStr">
+        <is>
+          <t>27/08/2019</t>
+        </is>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15292</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>MAI</t>
+        </is>
+      </c>
+      <c r="E117" s="0" t="inlineStr">
+        <is>
+          <t>VL 14</t>
+        </is>
+      </c>
+      <c r="F117" s="0" t="inlineStr">
+        <is>
+          <t>Polychem Indonesia</t>
+        </is>
+      </c>
+      <c r="G117" s="0" t="inlineStr">
+        <is>
+          <t>03/09/2019 10:49</t>
+        </is>
+      </c>
+      <c r="H117" s="0" t="inlineStr">
+        <is>
+          <t>03/09/2019 10:49</t>
+        </is>
+      </c>
+      <c r="I117" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J117" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="0">
+        <v>117</v>
+      </c>
+      <c r="B118" s="0" t="inlineStr">
+        <is>
+          <t>27/08/2019</t>
+        </is>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15293</t>
+        </is>
+      </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="E118" s="0" t="inlineStr">
+        <is>
+          <t>WHITNEY</t>
+        </is>
+      </c>
+      <c r="F118" s="0" t="inlineStr">
+        <is>
+          <t>VOPAK</t>
+        </is>
+      </c>
+      <c r="G118" s="0" t="inlineStr">
+        <is>
+          <t>03/09/2019 10:49</t>
+        </is>
+      </c>
+      <c r="H118" s="0" t="inlineStr">
+        <is>
+          <t>03/09/2019 10:49</t>
+        </is>
+      </c>
+      <c r="I118" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J118" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="0">
+        <v>118</v>
+      </c>
+      <c r="B119" s="0" t="inlineStr">
+        <is>
+          <t>28/08/2019</t>
+        </is>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15313</t>
+        </is>
+      </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>KL</t>
+        </is>
+      </c>
+      <c r="E119" s="0" t="inlineStr">
+        <is>
+          <t>WHITE TOMONY</t>
+        </is>
+      </c>
+      <c r="F119" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="G119" s="0" t="inlineStr">
+        <is>
+          <t>28/08/2019 09:09</t>
+        </is>
+      </c>
+      <c r="H119" s="0" t="inlineStr">
+        <is>
+          <t>31/08/2019 10:09</t>
+        </is>
+      </c>
+      <c r="I119" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="J119" s="0" t="inlineStr">
+        <is>
+          <t>PORT KLANG</t>
+        </is>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="0">
+        <v>119</v>
+      </c>
+      <c r="B120" s="0" t="inlineStr">
+        <is>
+          <t>28/08/2019</t>
+        </is>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15318</t>
+        </is>
+      </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>IDT</t>
+        </is>
+      </c>
+      <c r="E120" s="0" t="inlineStr">
+        <is>
+          <t>HANGLIMA</t>
+        </is>
+      </c>
+      <c r="F120" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="G120" s="0" t="inlineStr">
+        <is>
+          <t>31/08/2019 00:58</t>
+        </is>
+      </c>
+      <c r="H120" s="0" t="inlineStr">
+        <is>
+          <t>02/09/2019 00:58</t>
+        </is>
+      </c>
+      <c r="I120" s="0" t="inlineStr">
+        <is>
+          <t>BIMA</t>
+        </is>
+      </c>
+      <c r="J120" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="0">
+        <v>120</v>
+      </c>
+      <c r="B121" s="0" t="inlineStr">
+        <is>
+          <t>29/08/2019</t>
+        </is>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15328</t>
+        </is>
+      </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>BEN</t>
+        </is>
+      </c>
+      <c r="E121" s="0" t="inlineStr">
+        <is>
+          <t>GASCHEM LEDA</t>
+        </is>
+      </c>
+      <c r="F121" s="0" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
+      </c>
+      <c r="G121" s="0" t="inlineStr">
+        <is>
+          <t>29/08/2019 04:14</t>
+        </is>
+      </c>
+      <c r="H121" s="0" t="inlineStr">
+        <is>
+          <t>29/08/2019 05:14</t>
+        </is>
+      </c>
+      <c r="I121" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J121" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="0">
+        <v>121</v>
+      </c>
+      <c r="B122" s="0" t="inlineStr">
+        <is>
+          <t>29/08/2019</t>
+        </is>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15330</t>
+        </is>
+      </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>BEN</t>
+        </is>
+      </c>
+      <c r="E122" s="0" t="inlineStr">
+        <is>
+          <t>SILVER ARIES</t>
+        </is>
+      </c>
+      <c r="F122" s="0" t="inlineStr">
+        <is>
+          <t>Polychem Lindo</t>
+        </is>
+      </c>
+      <c r="G122" s="0" t="inlineStr">
+        <is>
+          <t>30/08/2019 04:14</t>
+        </is>
+      </c>
+      <c r="H122" s="0" t="inlineStr">
+        <is>
+          <t>30/08/2019 04:14</t>
+        </is>
+      </c>
+      <c r="I122" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J122" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="0">
+        <v>122</v>
+      </c>
+      <c r="B123" s="0" t="inlineStr">
+        <is>
+          <t>29/08/2019</t>
+        </is>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15331</t>
+        </is>
+      </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>BEN</t>
+        </is>
+      </c>
+      <c r="E123" s="0" t="inlineStr">
+        <is>
+          <t>FORTITUDE</t>
+        </is>
+      </c>
+      <c r="F123" s="0" t="inlineStr">
+        <is>
+          <t>VOPAK</t>
+        </is>
+      </c>
+      <c r="G123" s="0" t="inlineStr">
+        <is>
+          <t>01/09/2019 04:14</t>
+        </is>
+      </c>
+      <c r="H123" s="0" t="inlineStr">
+        <is>
+          <t>01/09/2019 04:14</t>
+        </is>
+      </c>
+      <c r="I123" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J123" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="0">
+        <v>123</v>
+      </c>
+      <c r="B124" s="0" t="inlineStr">
+        <is>
+          <t>29/08/2019</t>
+        </is>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15332</t>
+        </is>
+      </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>BSU</t>
+        </is>
+      </c>
+      <c r="E124" s="0" t="inlineStr">
+        <is>
+          <t>EAGLE ASIA 02</t>
+        </is>
+      </c>
+      <c r="F124" s="0" t="inlineStr">
+        <is>
+          <t>UIC</t>
+        </is>
+      </c>
+      <c r="G124" s="0" t="inlineStr">
+        <is>
+          <t>30/08/2019 04:17</t>
+        </is>
+      </c>
+      <c r="H124" s="0" t="inlineStr">
+        <is>
+          <t>31/08/2019 04:17</t>
+        </is>
+      </c>
+      <c r="I124" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J124" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="0">
+        <v>124</v>
+      </c>
+      <c r="B125" s="0" t="inlineStr">
+        <is>
+          <t>29/08/2019</t>
+        </is>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15338</t>
+        </is>
+      </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>ADL</t>
+        </is>
+      </c>
+      <c r="E125" s="0" t="inlineStr">
+        <is>
+          <t>ERAWAN 12</t>
+        </is>
+      </c>
+      <c r="F125" s="0" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
+      </c>
+      <c r="G125" s="0" t="inlineStr">
+        <is>
+          <t>29/08/2019 07:58</t>
+        </is>
+      </c>
+      <c r="H125" s="0" t="inlineStr">
+        <is>
+          <t>29/08/2019 08:58</t>
+        </is>
+      </c>
+      <c r="I125" s="0" t="inlineStr">
+        <is>
+          <t>GRESIK</t>
+        </is>
+      </c>
+      <c r="J125" s="0" t="inlineStr">
+        <is>
+          <t>GRESIK</t>
+        </is>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="0">
+        <v>125</v>
+      </c>
+      <c r="B126" s="0" t="inlineStr">
+        <is>
+          <t>29/08/2019</t>
+        </is>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15339</t>
+        </is>
+      </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>ADL</t>
+        </is>
+      </c>
+      <c r="E126" s="0" t="inlineStr">
+        <is>
+          <t>ARIN 8</t>
+        </is>
+      </c>
+      <c r="F126" s="0" t="inlineStr">
+        <is>
+          <t>CAPC</t>
+        </is>
+      </c>
+      <c r="G126" s="0" t="inlineStr">
+        <is>
+          <t>30/08/2019 07:58</t>
+        </is>
+      </c>
+      <c r="H126" s="0" t="inlineStr">
+        <is>
+          <t>30/08/2019 07:58</t>
+        </is>
+      </c>
+      <c r="I126" s="0" t="inlineStr">
+        <is>
+          <t>CILACAP</t>
+        </is>
+      </c>
+      <c r="J126" s="0" t="inlineStr">
+        <is>
+          <t>CILACAP</t>
+        </is>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="0">
+        <v>126</v>
+      </c>
+      <c r="B127" s="0" t="inlineStr">
+        <is>
+          <t>29/08/2019</t>
+        </is>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15340</t>
+        </is>
+      </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
+          <t>ADL</t>
+        </is>
+      </c>
+      <c r="E127" s="0" t="inlineStr">
+        <is>
+          <t>GAS LOTUS</t>
+        </is>
+      </c>
+      <c r="F127" s="0" t="inlineStr">
+        <is>
+          <t>CAPC</t>
+        </is>
+      </c>
+      <c r="G127" s="0" t="inlineStr">
+        <is>
+          <t>02/09/2019 07:58</t>
+        </is>
+      </c>
+      <c r="H127" s="0" t="inlineStr">
+        <is>
+          <t>02/09/2019 07:58</t>
+        </is>
+      </c>
+      <c r="I127" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J127" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="0">
+        <v>127</v>
+      </c>
+      <c r="B128" s="0" t="inlineStr">
+        <is>
+          <t>29/08/2019</t>
+        </is>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15342</t>
+        </is>
+      </c>
+      <c r="D128" s="0" t="inlineStr">
+        <is>
+          <t>ADL</t>
+        </is>
+      </c>
+      <c r="E128" s="0" t="inlineStr">
+        <is>
+          <t>EPIC COBRADOR</t>
+        </is>
+      </c>
+      <c r="F128" s="0" t="inlineStr">
+        <is>
+          <t>CAPC</t>
+        </is>
+      </c>
+      <c r="G128" s="0" t="inlineStr">
+        <is>
+          <t>03/09/2019 08:27</t>
+        </is>
+      </c>
+      <c r="H128" s="0" t="inlineStr">
+        <is>
+          <t>03/09/2019 08:27</t>
+        </is>
+      </c>
+      <c r="I128" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J128" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="0">
+        <v>128</v>
+      </c>
+      <c r="B129" s="0" t="inlineStr">
+        <is>
+          <t>29/08/2019</t>
+        </is>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15343</t>
+        </is>
+      </c>
+      <c r="D129" s="0" t="inlineStr">
+        <is>
+          <t>SAI</t>
+        </is>
+      </c>
+      <c r="E129" s="0" t="inlineStr">
+        <is>
+          <t>ORIENTAL MARINE</t>
+        </is>
+      </c>
+      <c r="F129" s="0" t="inlineStr">
+        <is>
+          <t>VOPAK</t>
+        </is>
+      </c>
+      <c r="G129" s="0" t="inlineStr">
+        <is>
+          <t>31/08/2019 08:27</t>
+        </is>
+      </c>
+      <c r="H129" s="0" t="inlineStr">
+        <is>
+          <t>31/08/2019 08:27</t>
+        </is>
+      </c>
+      <c r="I129" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="J129" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="0">
+        <v>129</v>
+      </c>
+      <c r="B130" s="0" t="inlineStr">
+        <is>
+          <t>30/08/2019</t>
+        </is>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15384</t>
+        </is>
+      </c>
+      <c r="D130" s="0" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="E130" s="0" t="inlineStr">
+        <is>
+          <t>WHW CHEM 1</t>
+        </is>
+      </c>
+      <c r="F130" s="0" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
+      </c>
+      <c r="G130" s="0" t="inlineStr">
+        <is>
+          <t>01/09/2019 08:36</t>
+        </is>
+      </c>
+      <c r="H130" s="0" t="inlineStr">
+        <is>
+          <t>01/09/2019 08:36</t>
+        </is>
+      </c>
+      <c r="I130" s="0" t="inlineStr">
+        <is>
+          <t>CILACAP</t>
+        </is>
+      </c>
+      <c r="J130" s="0" t="inlineStr">
+        <is>
+          <t>CILACAP</t>
+        </is>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="0">
+        <v>130</v>
+      </c>
+      <c r="B131" s="0" t="inlineStr">
+        <is>
+          <t>30/08/2019</t>
+        </is>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15392</t>
+        </is>
+      </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="E131" s="0" t="inlineStr">
+        <is>
+          <t>KALOLIMNOS</t>
+        </is>
+      </c>
+      <c r="F131" s="0" t="inlineStr">
+        <is>
+          <t>TITAN</t>
+        </is>
+      </c>
+      <c r="G131" s="0" t="inlineStr">
+        <is>
+          <t>31/08/2019 16:05</t>
+        </is>
+      </c>
+      <c r="H131" s="0" t="inlineStr">
+        <is>
+          <t>01/09/2019 16:05</t>
+        </is>
+      </c>
+      <c r="I131" s="0" t="inlineStr">
+        <is>
+          <t>SAID</t>
+        </is>
+      </c>
+      <c r="J131" s="0" t="inlineStr">
+        <is>
+          <t>SINGAPORE</t>
+        </is>
+      </c>
+      <c r="L131" s="0" t="inlineStr">
+        <is>
+          <t>ETHYLENE</t>
+        </is>
+      </c>
+      <c r="M131" s="0" t="inlineStr">
+        <is>
+          <t>6400/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="0">
+        <v>131</v>
+      </c>
+      <c r="B132" s="0" t="inlineStr">
+        <is>
+          <t>30/08/2019</t>
+        </is>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>PPJ-2019/15388</t>
+        </is>
+      </c>
+      <c r="D132" s="0" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="E132" s="0" t="inlineStr">
+        <is>
+          <t>TITAN 560</t>
+        </is>
+      </c>
+      <c r="F132" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="G132" s="0" t="inlineStr">
+        <is>
+          <t>01/09/2019 23:15</t>
+        </is>
+      </c>
+      <c r="H132" s="0" t="inlineStr">
+        <is>
+          <t>05/09/2019 23:15</t>
+        </is>
+      </c>
+      <c r="I132" s="0" t="inlineStr">
+        <is>
+          <t>CIGADING</t>
+        </is>
+      </c>
+      <c r="J132" s="0" t="inlineStr">
+        <is>
+          <t>BENGKULU</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>